--- a/medicine/Enfance/Geneviève_Amyot/Geneviève_Amyot.xlsx
+++ b/medicine/Enfance/Geneviève_Amyot/Geneviève_Amyot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Amyot</t>
+          <t>Geneviève_Amyot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geneviève Amyot est une poète et romancière québécoise née le 10 janvier 1945 à Saint-Augustin-de-Desmaures, près de Québec, et morte le 11 juin 2000 à Lévis.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Amyot</t>
+          <t>Geneviève_Amyot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geneviève Amyot est née le 10 janvier 1945 à Saint-Augustin-de-Desmaures[1].
-Elle étudie en pédagogie à l'École Normale Notre-Dame-De-Foy de 1961 à 1965, puis en Lettres à l'Université Laval, où elle reçoit sa licence en 1969[2].
-De 1965 à 1972, elle est enseignante au primaire, et de littérature au niveau collégial[2]. Elle se consacre par la suite à son écriture. Elle collabore à plusieurs revues dont Estuaire, Dérives, La Nouvelle Barre du jour, Interventions, Québec français et Room of One's Own (en)[3].
-Durant les 10 dernières années de sa vie, elle fait face à une maladie dégénérative[4]. Geneviève Amyot décède le 11 juin 2000.
-Pour lui rendre hommage, le Bureau des affaires poétiques de la ville de Québec a créé le Prix Geneviève-Amyot en 2015[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geneviève Amyot est née le 10 janvier 1945 à Saint-Augustin-de-Desmaures.
+Elle étudie en pédagogie à l'École Normale Notre-Dame-De-Foy de 1961 à 1965, puis en Lettres à l'Université Laval, où elle reçoit sa licence en 1969.
+De 1965 à 1972, elle est enseignante au primaire, et de littérature au niveau collégial. Elle se consacre par la suite à son écriture. Elle collabore à plusieurs revues dont Estuaire, Dérives, La Nouvelle Barre du jour, Interventions, Québec français et Room of One's Own (en).
+Durant les 10 dernières années de sa vie, elle fait face à une maladie dégénérative. Geneviève Amyot décède le 11 juin 2000.
+Pour lui rendre hommage, le Bureau des affaires poétiques de la ville de Québec a créé le Prix Geneviève-Amyot en 2015.
 Elle est la tante du comédien Yves Amyot.
-Écriture
-Geneviève Amyot s'intéresse au quotidien de la femme, de la maternité et du deuil. La poète et critique Louise Dupré décrit ainsi son style[6],[7] : 
-« Sa voix, forte de sa fragilité même, assurée malgré ses tremblements, élabore un monde minuscule, modeste, à la hauteur de l'individu. Jamais elle ne cherche à atteindre au mythique. Si le je lyrique touche à l'universel, c'est à l'universel des petits, des démunis, des sans-voix formant une humanité qui souffre, désire, halète, aime, espère et meurt. On est ici dans la vie sans gloire avec son quotidien, ses pensées, ses sentiments humbles (…) »
-Elle correspond avec le médecin et poète Jean Désy de 1990 à 2000[8]. Un livre posthume réunissant plusieurs de ces lettres a été publié en 2012 sous le titre Que vous ai-je raconté? Correspondance 1990-2000. Geneviève Amyot — Jean Désy[9].
 </t>
         </is>
       </c>
@@ -533,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Amyot</t>
+          <t>Geneviève_Amyot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,62 +558,278 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Écriture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geneviève Amyot s'intéresse au quotidien de la femme, de la maternité et du deuil. La poète et critique Louise Dupré décrit ainsi son style, : 
+« Sa voix, forte de sa fragilité même, assurée malgré ses tremblements, élabore un monde minuscule, modeste, à la hauteur de l'individu. Jamais elle ne cherche à atteindre au mythique. Si le je lyrique touche à l'universel, c'est à l'universel des petits, des démunis, des sans-voix formant une humanité qui souffre, désire, halète, aime, espère et meurt. On est ici dans la vie sans gloire avec son quotidien, ses pensées, ses sentiments humbles (…) »
+Elle correspond avec le médecin et poète Jean Désy de 1990 à 2000. Un livre posthume réunissant plusieurs de ces lettres a été publié en 2012 sous le titre Que vous ai-je raconté? Correspondance 1990-2000. Geneviève Amyot — Jean Désy.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geneviève_Amyot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Amyot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-L'Absent aigu, Montréal, éditions Quinze, 1976, 127 p. (ISBN 0885650875)
-Journal de l'année passée, roman, Montréal, VLB éditeur, 1978, 167 p.
-Nouvelles
-Petites fins du monde, récits, Montréal, VLB éditeur, 1988, 115 p. (ISBN 2890053121)
-Poésie
-La mort était extravagante, Montréal, Éditions du Noroît (dessins de Madeleine Morin), 1975, 91 p.  (ISBN 088524012X) ; réédition de La mort était extravagante, suivi de Nous sommes beaucoup qui avons peur, avant-propos de Luc Lecompte, Montréal, éditions du Noroît, 2003, 102 p.  (ISBN 2-89018-520-6)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Absent aigu, Montréal, éditions Quinze, 1976, 127 p. (ISBN 0885650875)
+Journal de l'année passée, roman, Montréal, VLB éditeur, 1978, 167 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geneviève_Amyot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Amyot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Petites fins du monde, récits, Montréal, VLB éditeur, 1988, 115 p. (ISBN 2890053121)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geneviève_Amyot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Amyot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La mort était extravagante, Montréal, Éditions du Noroît (dessins de Madeleine Morin), 1975, 91 p.  (ISBN 088524012X) ; réédition de La mort était extravagante, suivi de Nous sommes beaucoup qui avons peur, avant-propos de Luc Lecompte, Montréal, éditions du Noroît, 2003, 102 p.  (ISBN 2-89018-520-6)
 Dans la pitié des chairs, Montréal, Éditions du Noroît (dessin de Madeleine Morin), 1982, 117 p. (ISBN 2890180611)
 Corps d'atelier, Montréal, Éditions du Noroît, 1990, 96 p.  (ISBN 088524012X); réédition de Corps d’atelier, avec une préface de Jean-Paul Daoust, Éditions du Noroît, 2013, 88 p.  (ISBN 2890181995)
 Je t'écrirai encore demain, Montréal, Éditions du Noroît, 1994, 118 p.  (ISBN 2-89018-285-1)
-« Ma fille », Femmes rapaillées, Montréal, Mémoire d'encrier; poème inachevé transmis par sa fille au collectif de 41 poétesses, 2016, 240 p.  (ISBN 9782897123697)
-Jeunesse
-Corneille et compagnie, La grosse famille, éditions TROIS (Tome 1), 2000.  (ISBN 2-89516-017-1)
-Corneille et compagnie, Chiots recherchés, éditions TROIS (Tome 2), 2000.  (ISBN 2-89516-018-X)
-Anthologie
-Poètes du Québec, anthologie de 25 poètes choisis par Andrée Appercelle et Geneviève Amyot, Maison de la poésie de Saint-Martin-d'Hères (France), 1988.
+« Ma fille », Femmes rapaillées, Montréal, Mémoire d'encrier; poème inachevé transmis par sa fille au collectif de 41 poétesses, 2016, 240 p.  (ISBN 9782897123697)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Geneviève_Amyot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Amyot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Corneille et compagnie, La grosse famille, éditions TROIS (Tome 1), 2000.  (ISBN 2-89516-017-1)
+Corneille et compagnie, Chiots recherchés, éditions TROIS (Tome 2), 2000.  (ISBN 2-89516-018-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Geneviève_Amyot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Amyot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Anthologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Poètes du Québec, anthologie de 25 poètes choisis par Andrée Appercelle et Geneviève Amyot, Maison de la poésie de Saint-Martin-d'Hères (France), 1988.
 Anthologie de la poésie des femmes au Québec, textes choisis par Nicole Brossard et Lisette Girouard, éditions du Remue-Ménage, 1991, 480 p.  (ISBN 978-2-89091-209-0)
-J'écris peuplier (livre anniversaire), Collectif paritaire de cinquante poètes, dirigé et illustré par Monique LeBlanc, préface de Paul Bélanger, Montréal, Éditions du Noroît, 2021  (ISBN 978-2-89766-278-3)
-Œuvres posthumes
-Que vous ai-je raconté? Correspondance 1990-2000. Geneviève Amyot — Jean Désy, Montréal, Éditions du Noroît, coll. Chemins de traverse, 2012, 489 p.  (ISBN 9782890187429)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Genevi%C3%A8ve_Amyot</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Amyot</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+J'écris peuplier (livre anniversaire), Collectif paritaire de cinquante poètes, dirigé et illustré par Monique LeBlanc, préface de Paul Bélanger, Montréal, Éditions du Noroît, 2021  (ISBN 978-2-89766-278-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Geneviève_Amyot</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Amyot</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Œuvres posthumes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Que vous ai-je raconté? Correspondance 1990-2000. Geneviève Amyot — Jean Désy, Montréal, Éditions du Noroît, coll. Chemins de traverse, 2012, 489 p.  (ISBN 9782890187429)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Geneviève_Amyot</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Amyot</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1990 : lauréate du Prix de poésie Terrasses Saint-Sulpice de la revue Estuaire pour Corps d'atelier [10]
-1990 : en nomination pour le Prix du Gouverneur général de poésie pour Corps d'atelier[11]</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1990 : lauréate du Prix de poésie Terrasses Saint-Sulpice de la revue Estuaire pour Corps d'atelier 
+1990 : en nomination pour le Prix du Gouverneur général de poésie pour Corps d'atelier</t>
         </is>
       </c>
     </row>
